--- a/FPH_Linear/287-FPH-Relatório-Reg-D-STO ANTONIO .xlsx
+++ b/FPH_Linear/287-FPH-Relatório-Reg-D-STO ANTONIO .xlsx
@@ -951,7 +951,7 @@
         <v>1.029845875189167</v>
       </c>
       <c r="E2">
-        <v>-0.02371610061931584</v>
+        <v>-0.0447345806578274</v>
       </c>
       <c r="F2">
         <v>-492.0270485131268</v>
@@ -960,7 +960,7 @@
         <v>2.517782061870298</v>
       </c>
       <c r="H2">
-        <v>24.02158260980485</v>
+        <v>23.43699877578822</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -977,7 +977,7 @@
         <v>1.012832892005883</v>
       </c>
       <c r="E3">
-        <v>-0.02358422283260739</v>
+        <v>-0.04454647979461906</v>
       </c>
       <c r="F3">
         <v>-459.3081037489035</v>
@@ -997,7 +997,7 @@
         <v>0.9909853108939697</v>
       </c>
       <c r="E4">
-        <v>-0.02347132040544611</v>
+        <v>-0.04438544400127274</v>
       </c>
       <c r="F4">
         <v>-420.6586393160955</v>
@@ -1017,7 +1017,7 @@
         <v>0.9636791173730171</v>
       </c>
       <c r="E5">
-        <v>-0.02340076487096239</v>
+        <v>-0.04428480872923976</v>
       </c>
       <c r="F5">
         <v>-376.5611834109612</v>
@@ -1037,7 +1037,7 @@
         <v>0.7723844063918749</v>
       </c>
       <c r="E6">
-        <v>-0.02340076487096241</v>
+        <v>-0.04428480872923979</v>
       </c>
       <c r="F6">
         <v>-97.11786026914669</v>
@@ -1057,7 +1057,7 @@
         <v>0.7596246690044101</v>
       </c>
       <c r="E7">
-        <v>-0.02340076487096241</v>
+        <v>-0.04428480872923979</v>
       </c>
       <c r="F7">
         <v>-75.85630923737963</v>
@@ -1077,7 +1077,7 @@
         <v>0.7432389831704772</v>
       </c>
       <c r="E8">
-        <v>-0.02340076487096241</v>
+        <v>-0.04428480872923979</v>
       </c>
       <c r="F8">
         <v>-45.18558169334225</v>
@@ -1097,7 +1097,7 @@
         <v>0.7227593380297606</v>
       </c>
       <c r="E9">
-        <v>-0.02340076487096243</v>
+        <v>-0.04428480872923983</v>
       </c>
       <c r="F9">
         <v>-2.643213842548936</v>
@@ -1117,7 +1117,7 @@
         <v>0.7723844063918749</v>
       </c>
       <c r="E10">
-        <v>-0.03149865416483183</v>
+        <v>-0.05583504781317133</v>
       </c>
       <c r="F10">
         <v>-580.1488587591654</v>
@@ -1137,7 +1137,7 @@
         <v>0.7596246690044101</v>
       </c>
       <c r="E11">
-        <v>-0.0314327152714776</v>
+        <v>-0.05574099738156717</v>
       </c>
       <c r="F11">
         <v>-554.9541186777118</v>
@@ -1157,7 +1157,7 @@
         <v>0.7432389831704772</v>
       </c>
       <c r="E12">
-        <v>-0.03143271527147765</v>
+        <v>-0.05574099738156723</v>
       </c>
       <c r="F12">
         <v>-524.2833911336744</v>
@@ -1177,7 +1177,7 @@
         <v>0.7227593380297607</v>
       </c>
       <c r="E13">
-        <v>-0.03153854857320315</v>
+        <v>-0.0558919502896166</v>
       </c>
       <c r="F13">
         <v>-488.0538738975075</v>
@@ -1197,7 +1197,7 @@
         <v>0.5149229375945833</v>
       </c>
       <c r="E14">
-        <v>-0.03368663388675892</v>
+        <v>-0.05895582262027868</v>
       </c>
       <c r="F14">
         <v>-141.7360697041096</v>
@@ -1217,7 +1217,7 @@
         <v>0.5064164460029372</v>
       </c>
       <c r="E15">
-        <v>-0.03375257278011319</v>
+        <v>-0.05904987305188291</v>
       </c>
       <c r="F15">
         <v>-126.250639333031</v>
@@ -1237,7 +1237,7 @@
         <v>0.4954926554469848</v>
       </c>
       <c r="E16">
-        <v>-0.0338090239936938</v>
+        <v>-0.05913039094855602</v>
       </c>
       <c r="F16">
         <v>-104.6810681573871</v>
@@ -1257,7 +1257,7 @@
         <v>0.481839558686513</v>
       </c>
       <c r="E17">
-        <v>-0.03384430176093565</v>
+        <v>-0.05918070858457249</v>
       </c>
       <c r="F17">
         <v>-75.61806174413422</v>
@@ -1277,7 +1277,7 @@
         <v>0.5149229375945833</v>
       </c>
       <c r="E18">
-        <v>-0.05784213698020624</v>
+        <v>-0.09340947168821362</v>
       </c>
       <c r="F18">
         <v>-622.0199377111222</v>
@@ -1297,7 +1297,7 @@
         <v>0.5064164460029372</v>
       </c>
       <c r="E19">
-        <v>-0.0578201573490881</v>
+        <v>-0.09337812154434545</v>
       </c>
       <c r="F19">
         <v>-604.7864233179608</v>
@@ -1317,7 +1317,7 @@
         <v>0.4954926554469848</v>
       </c>
       <c r="E20">
-        <v>-0.05787660856266875</v>
+        <v>-0.09345863944101863</v>
       </c>
       <c r="F20">
         <v>-583.2168521423165</v>
@@ -1337,7 +1337,7 @@
         <v>0.481839558686513</v>
       </c>
       <c r="E21">
-        <v>-0.05805299739887793</v>
+        <v>-0.09371022762110093</v>
       </c>
       <c r="F21">
         <v>-556.9595571133403</v>
@@ -1357,7 +1357,7 @@
         <v>0.2574614687972872</v>
       </c>
       <c r="E22">
-        <v>-0.06269110004659063</v>
+        <v>-0.1003256791953098</v>
       </c>
       <c r="F22">
         <v>-136.9686375027265</v>
@@ -1377,7 +1377,7 @@
         <v>0.2532082230014731</v>
       </c>
       <c r="E23">
-        <v>-0.06275703893994472</v>
+        <v>-0.1004197296269138</v>
       </c>
       <c r="F23">
         <v>-128.5703908089237</v>
@@ -1397,7 +1397,7 @@
         <v>0.2477463277234924</v>
       </c>
       <c r="E24">
-        <v>-0.06281349015352547</v>
+        <v>-0.1005002475235871</v>
       </c>
       <c r="F24">
         <v>-117.2243954812804</v>
@@ -1417,7 +1417,7 @@
         <v>0.2409197793432565</v>
       </c>
       <c r="E25">
-        <v>-0.06284876792076725</v>
+        <v>-0.1005505651596034</v>
       </c>
       <c r="F25">
         <v>-102.3421783516196</v>
@@ -1437,7 +1437,7 @@
         <v>0.2574614687972872</v>
       </c>
       <c r="E26">
-        <v>-0.1227206857531599</v>
+        <v>-0.1859475050635822</v>
       </c>
       <c r="F26">
         <v>-534.8247217039655</v>
@@ -1457,7 +1457,7 @@
         <v>0.253208223001473</v>
       </c>
       <c r="E27">
-        <v>-0.1227206857531598</v>
+        <v>-0.1859475050635821</v>
       </c>
       <c r="F27">
         <v>-525.9894540046431</v>
@@ -1477,7 +1477,7 @@
         <v>0.2477463277234924</v>
       </c>
       <c r="E28">
-        <v>-0.1227771369667405</v>
+        <v>-0.1860280229602553</v>
       </c>
       <c r="F28">
         <v>-514.6434586769992</v>
@@ -1497,7 +1497,7 @@
         <v>0.2409197793432565</v>
       </c>
       <c r="E29">
-        <v>-0.1229182480357079</v>
+        <v>-0.1862292935043212</v>
       </c>
       <c r="F29">
         <v>-500.4626693934077</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>-0.1303883000381782</v>
+        <v>-0.1968840312349608</v>
       </c>
       <c r="F30">
         <v>2.318201460333626E-13</v>

--- a/FPH_Linear/287-FPH-Relatório-Reg-D-STO ANTONIO .xlsx
+++ b/FPH_Linear/287-FPH-Relatório-Reg-D-STO ANTONIO .xlsx
@@ -951,7 +951,7 @@
         <v>1.029845875189167</v>
       </c>
       <c r="E2">
-        <v>-0.0447345806578274</v>
+        <v>-0.05825931926444525</v>
       </c>
       <c r="F2">
         <v>-492.0270485131268</v>
@@ -960,7 +960,7 @@
         <v>2.517782061870298</v>
       </c>
       <c r="H2">
-        <v>23.43699877578822</v>
+        <v>20.90214078770467</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -977,7 +977,7 @@
         <v>1.012832892005883</v>
       </c>
       <c r="E3">
-        <v>-0.04454647979461906</v>
+        <v>-0.05790970246002871</v>
       </c>
       <c r="F3">
         <v>-459.3081037489035</v>
@@ -997,7 +997,7 @@
         <v>0.9909853108939697</v>
       </c>
       <c r="E4">
-        <v>-0.04438544400127274</v>
+        <v>-0.05761039059879568</v>
       </c>
       <c r="F4">
         <v>-420.6586393160955</v>
@@ -1017,7 +1017,7 @@
         <v>0.9636791173730171</v>
       </c>
       <c r="E5">
-        <v>-0.04428480872923976</v>
+        <v>-0.05742334317317703</v>
       </c>
       <c r="F5">
         <v>-376.5611834109612</v>
@@ -1037,7 +1037,7 @@
         <v>0.7723844063918749</v>
       </c>
       <c r="E6">
-        <v>-0.04428480872923979</v>
+        <v>-0.05742334317317709</v>
       </c>
       <c r="F6">
         <v>-97.11786026914669</v>
@@ -1057,7 +1057,7 @@
         <v>0.7596246690044101</v>
       </c>
       <c r="E7">
-        <v>-0.04428480872923979</v>
+        <v>-0.05742334317317709</v>
       </c>
       <c r="F7">
         <v>-75.85630923737963</v>
@@ -1077,7 +1077,7 @@
         <v>0.7432389831704772</v>
       </c>
       <c r="E8">
-        <v>-0.04428480872923979</v>
+        <v>-0.05742334317317709</v>
       </c>
       <c r="F8">
         <v>-45.18558169334225</v>
@@ -1097,7 +1097,7 @@
         <v>0.7227593380297606</v>
       </c>
       <c r="E9">
-        <v>-0.04428480872923983</v>
+        <v>-0.05742334317317715</v>
       </c>
       <c r="F9">
         <v>-2.643213842548936</v>
@@ -1117,7 +1117,7 @@
         <v>0.7723844063918749</v>
       </c>
       <c r="E10">
-        <v>-0.05583504781317133</v>
+        <v>-0.07889138755051117</v>
       </c>
       <c r="F10">
         <v>-580.1488587591654</v>
@@ -1137,7 +1137,7 @@
         <v>0.7596246690044101</v>
       </c>
       <c r="E11">
-        <v>-0.05574099738156717</v>
+        <v>-0.07871657914830291</v>
       </c>
       <c r="F11">
         <v>-554.9541186777118</v>
@@ -1157,7 +1157,7 @@
         <v>0.7432389831704772</v>
       </c>
       <c r="E12">
-        <v>-0.05574099738156723</v>
+        <v>-0.07871657914830302</v>
       </c>
       <c r="F12">
         <v>-524.2833911336744</v>
@@ -1177,7 +1177,7 @@
         <v>0.7227593380297607</v>
       </c>
       <c r="E13">
-        <v>-0.0558919502896166</v>
+        <v>-0.07899715028673078</v>
       </c>
       <c r="F13">
         <v>-488.0538738975075</v>
@@ -1197,7 +1197,7 @@
         <v>0.5149229375945833</v>
       </c>
       <c r="E14">
-        <v>-0.05895582262027868</v>
+        <v>-0.0846918676586547</v>
       </c>
       <c r="F14">
         <v>-141.7360697041096</v>
@@ -1217,7 +1217,7 @@
         <v>0.5064164460029372</v>
       </c>
       <c r="E15">
-        <v>-0.05904987305188291</v>
+        <v>-0.08486667606086309</v>
       </c>
       <c r="F15">
         <v>-126.250639333031</v>
@@ -1237,7 +1237,7 @@
         <v>0.4954926554469848</v>
       </c>
       <c r="E16">
-        <v>-0.05913039094855602</v>
+        <v>-0.08501633199147951</v>
       </c>
       <c r="F16">
         <v>-104.6810681573871</v>
@@ -1257,7 +1257,7 @@
         <v>0.481839558686513</v>
       </c>
       <c r="E17">
-        <v>-0.05918070858457249</v>
+        <v>-0.08510985570428882</v>
       </c>
       <c r="F17">
         <v>-75.61806174413422</v>
@@ -1277,7 +1277,7 @@
         <v>0.5149229375945833</v>
       </c>
       <c r="E18">
-        <v>-0.09340947168821362</v>
+        <v>-0.1487297167262565</v>
       </c>
       <c r="F18">
         <v>-622.0199377111222</v>
@@ -1297,7 +1297,7 @@
         <v>0.5064164460029372</v>
       </c>
       <c r="E19">
-        <v>-0.09337812154434545</v>
+        <v>-0.1486714472588535</v>
       </c>
       <c r="F19">
         <v>-604.7864233179608</v>
@@ -1317,7 +1317,7 @@
         <v>0.4954926554469848</v>
       </c>
       <c r="E20">
-        <v>-0.09345863944101863</v>
+        <v>-0.14882110318947</v>
       </c>
       <c r="F20">
         <v>-583.2168521423165</v>
@@ -1337,7 +1337,7 @@
         <v>0.481839558686513</v>
       </c>
       <c r="E21">
-        <v>-0.09371022762110093</v>
+        <v>-0.1492887217535163</v>
       </c>
       <c r="F21">
         <v>-556.9595571133403</v>
@@ -1357,7 +1357,7 @@
         <v>0.2574614687972872</v>
       </c>
       <c r="E22">
-        <v>-0.1003256791953098</v>
+        <v>-0.1615846410794459</v>
       </c>
       <c r="F22">
         <v>-136.9686375027265</v>
@@ -1377,7 +1377,7 @@
         <v>0.2532082230014731</v>
       </c>
       <c r="E23">
-        <v>-0.1004197296269138</v>
+        <v>-0.1617594494816538</v>
       </c>
       <c r="F23">
         <v>-128.5703908089237</v>
@@ -1397,7 +1397,7 @@
         <v>0.2477463277234924</v>
       </c>
       <c r="E24">
-        <v>-0.1005002475235871</v>
+        <v>-0.1619091054122706</v>
       </c>
       <c r="F24">
         <v>-117.2243954812804</v>
@@ -1417,7 +1417,7 @@
         <v>0.2409197793432565</v>
       </c>
       <c r="E25">
-        <v>-0.1005505651596034</v>
+        <v>-0.1620026291250797</v>
       </c>
       <c r="F25">
         <v>-102.3421783516196</v>
@@ -1437,7 +1437,7 @@
         <v>0.2574614687972872</v>
       </c>
       <c r="E26">
-        <v>-0.1859475050635822</v>
+        <v>-0.3207270747599414</v>
       </c>
       <c r="F26">
         <v>-534.8247217039655</v>
@@ -1457,7 +1457,7 @@
         <v>0.253208223001473</v>
       </c>
       <c r="E27">
-        <v>-0.1859475050635821</v>
+        <v>-0.3207270747599413</v>
       </c>
       <c r="F27">
         <v>-525.9894540046431</v>
@@ -1477,7 +1477,7 @@
         <v>0.2477463277234924</v>
       </c>
       <c r="E28">
-        <v>-0.1860280229602553</v>
+        <v>-0.3208767306905579</v>
       </c>
       <c r="F28">
         <v>-514.6434586769992</v>
@@ -1497,7 +1497,7 @@
         <v>0.2409197793432565</v>
       </c>
       <c r="E29">
-        <v>-0.1862292935043212</v>
+        <v>-0.321250825541795</v>
       </c>
       <c r="F29">
         <v>-500.4626693934077</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>-0.1968840312349608</v>
+        <v>-0.3410544314038105</v>
       </c>
       <c r="F30">
         <v>2.318201460333626E-13</v>
